--- a/游戏引擎架构.xlsx
+++ b/游戏引擎架构.xlsx
@@ -1,21 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数学" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆柱坐标系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛卡尔坐标系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>球坐标系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左手坐标系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右手坐标系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +55,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -40,23 +109,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +536,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="7" spans="5:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="I7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="L7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="5:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="5:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="14" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H14:I16"/>
+    <mergeCell ref="J14:K16"/>
+    <mergeCell ref="E3:N5"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="F7:G9"/>
+    <mergeCell ref="L7:M9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>